--- a/product_links.xlsx
+++ b/product_links.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,90 +440,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://shawfloors.com/flooring/vinyl/flooring/vinyl/details/paragon-hdnatural-bevel-3038v/oriel</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://shawfloors.com/flooring/vinyl/flooring/vinyl/details/paragon-tile-plus-1022v/shale</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://shawfloors.com/flooring/vinyl/flooring/vinyl/details/infinite-8-3339v/raw-sienna</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://shawfloors.com/flooring/vinyl/flooring/vinyl/details/intrepid-hd-plus-2024v/distressed-pine</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://shawfloors.com/flooring/vinyl/flooring/vinyl/details/endura-plus-0736v/ivory-oak</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://shawfloors.com/flooring/vinyl/flooring/vinyl/details/paragon-5in-plus-1019v/touch-pine</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://shawfloors.com/flooring/vinyl/flooring/vinyl/details/paragon-mix-plus-1021v/brush-oak</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://shawfloors.com/flooring/vinyl/flooring/vinyl/details/paragon-7in-plus-1020v/whitefill-oak</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://shawfloors.com/flooring/vinyl/flooring/vinyl/details/antica-hd-plus-524sa/saggio</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://shawfloors.com/flooring/vinyl/flooring/vinyl/details/sabine-hill-plus-523sa/pecorino</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://shawfloors.com/flooring/vinyl/flooring/vinyl/details/mantua-plus-505sa/malta</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://shawfloors.com/flooring/vinyl/flooring/vinyl/details/paramount-512c-plus-509sa/lighthouse</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
